--- a/StudentCard/data.xlsx
+++ b/StudentCard/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PIAIC\StudentCard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PIAIC\GITHUB\CoLabWorking\StudentCard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B83157C-A2B1-410B-B125-374C139CE759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8AE3C-7A22-4480-ACEB-1508B5A2D491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{710E5C47-8E5F-4081-8D2A-21E8ABA90F95}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Roll No.</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Mehtab Rahim</t>
+  </si>
+  <si>
+    <t>Roll#</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
   <autoFilter ref="A1:G3" xr:uid="{A7B87196-E24D-46EF-9A63-F30E48440C5C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7DE50784-1443-4E9A-8CEF-AB8E1C666262}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F8748CEA-E924-4C9D-A972-ACC8D0966609}" name="Roll No.">
+    <tableColumn id="2" xr3:uid="{F8748CEA-E924-4C9D-A972-ACC8D0966609}" name="Roll#">
       <calculatedColumnFormula>+B1+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{9BF3047F-DA93-4504-BF01-77E0FB4A7971}" name="Batch"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,33 +459,33 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <f>+B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/StudentCard/data.xlsx
+++ b/StudentCard/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PIAIC\GITHUB\CoLabWorking\StudentCard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8AE3C-7A22-4480-ACEB-1508B5A2D491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62597189-F992-4676-A033-3CD801EDC475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{710E5C47-8E5F-4081-8D2A-21E8ABA90F95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Karachi</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Roll#</t>
+  </si>
+  <si>
+    <t>M Bilal</t>
   </si>
 </sst>
 </file>
@@ -128,8 +131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7B87196-E24D-46EF-9A63-F30E48440C5C}" name="SDATA" displayName="SDATA" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3" xr:uid="{A7B87196-E24D-46EF-9A63-F30E48440C5C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7B87196-E24D-46EF-9A63-F30E48440C5C}" name="SDATA" displayName="SDATA" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{A7B87196-E24D-46EF-9A63-F30E48440C5C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7DE50784-1443-4E9A-8CEF-AB8E1C666262}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F8748CEA-E924-4C9D-A972-ACC8D0966609}" name="Roll#">
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333E5C7A-AE4D-4101-9553-8A345E448A1D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +521,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>+B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
